--- a/output/carin-rtpbc-request-claim.xlsx
+++ b/output/carin-rtpbc-request-claim.xlsx
@@ -23355,7 +23355,7 @@
         <v>42</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X188" t="s" s="2">
         <v>794</v>
